--- a/raw/en/sample2.xlsx
+++ b/raw/en/sample2.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="坐骑|Mount" sheetId="1" r:id="rId1"/>
+    <sheet name="Mount table Conf|Mount" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,14 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,15 +45,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞毯</t>
+    <t xml:space="preserve">unique id </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chariot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Horse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flying carpet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +431,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -442,37 +442,37 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10001</v>
       </c>
@@ -480,7 +480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10002</v>
       </c>
@@ -488,7 +488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10003</v>
       </c>
